--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet_data_populated.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet_data_populated.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R8b66c36b91ef4840"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R3c8fe615999f4bf6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet_data_populated.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet_data_populated.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R3c8fe615999f4bf6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rd26b3b456c084e11"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet_data_populated.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet_data_populated.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rd26b3b456c084e11"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Re4dcb9edee154180"/>
   </x:sheets>
 </x:workbook>
 </file>
